--- a/业绩报表/836247.xlsx
+++ b/业绩报表/836247.xlsx
@@ -644,26 +644,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>180771449.92</v>
+        <v>199310474.48</v>
       </c>
       <c r="L2" t="n">
-        <v>18509728.09</v>
+        <v>34815240.66</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>10.2555047095</v>
+      </c>
+      <c r="O2" t="n">
+        <v>88.0915834674</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.408789764032</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.787090161613</v>
+      </c>
       <c r="R2" t="n">
-        <v>27.9326711615</v>
+        <v>32.9923158587</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -688,22 +696,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2019Q3</t>
+          <t>2020Q3</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2019年 三季报</t>
+          <t>2020年 三季报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -713,7 +721,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2020-12-22 16:06:32</t>
+          <t>2020-12-22 16:06:38</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">

--- a/业绩报表/836247.xlsx
+++ b/业绩报表/836247.xlsx
@@ -644,34 +644,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>199310474.48</v>
+        <v>180771449.92</v>
       </c>
       <c r="L2" t="n">
-        <v>34815240.66</v>
+        <v>18509728.09</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>10.2555047095</v>
-      </c>
-      <c r="O2" t="n">
-        <v>88.0915834674</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.408789764032</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.787090161613</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>32.9923158587</v>
+        <v>27.9326711615</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -696,22 +688,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2020Q3</t>
+          <t>2019Q3</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2020年 三季报</t>
+          <t>2019年 三季报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -721,7 +713,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>2020-12-22 16:06:38</t>
+          <t>2020-12-22 16:06:32</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
